--- a/DATA_ANALYSIS/PPS.xlsx
+++ b/DATA_ANALYSIS/PPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macpo\Desktop\TU Delft\Y2\Q2\low speed wind tunnel test\python\2D-Wind-Tunnel\DATA_ANALYSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D2E7D7-CC9A-4238-9744-D687081C3181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C816BBC5-4A8A-4CC6-AF8A-5B9275A85E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E5DC7019-7F11-4EB0-87E2-C2C34F17802C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="379">
   <si>
     <t xml:space="preserve">  Run_nr</t>
   </si>
@@ -817,9 +817,6 @@
     <t>pressure no.</t>
   </si>
   <si>
-    <t xml:space="preserve">airfoil pressure tap coordinates </t>
-  </si>
-  <si>
     <t>Pressure no.</t>
   </si>
   <si>
@@ -1172,6 +1169,12 @@
   </si>
   <si>
     <t>P049</t>
+  </si>
+  <si>
+    <t>xcords</t>
+  </si>
+  <si>
+    <t>ycords</t>
   </si>
 </sst>
 </file>
@@ -1512,18 +1515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,6 +1523,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21596,7 +21599,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21607,56 +21610,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="25" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="L1" s="30" t="s">
         <v>262</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>265</v>
-      </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="21">
         <v>0</v>
@@ -21666,30 +21671,30 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F3" s="21">
         <v>0</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I3" s="21">
         <v>43.5</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>270</v>
       </c>
       <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="23">
         <v>0.35626000000000002</v>
@@ -21699,30 +21704,30 @@
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="23">
         <v>12</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I4" s="23">
         <v>55.5</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="23">
         <v>1.33331</v>
@@ -21732,14 +21737,14 @@
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="23">
         <v>21</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I5" s="23">
         <v>67.5</v>
@@ -21751,7 +21756,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="23">
         <v>3.6610800000000001</v>
@@ -21761,14 +21766,14 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F6" s="23">
         <v>27</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I6" s="23">
         <v>79.5</v>
@@ -21780,7 +21785,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="23">
         <v>7.2922000000000002</v>
@@ -21790,14 +21795,14 @@
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="23">
         <v>33</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I7" s="23">
         <v>91.5</v>
@@ -21809,7 +21814,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="23">
         <v>11.35604</v>
@@ -21819,14 +21824,14 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="23">
         <v>39</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I8" s="23">
         <v>103.5</v>
@@ -21838,7 +21843,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="23">
         <v>15.59135</v>
@@ -21848,14 +21853,14 @@
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F9" s="23">
         <v>45</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I9" s="23">
         <v>115.5</v>
@@ -21867,7 +21872,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="23">
         <v>19.91328</v>
@@ -21877,14 +21882,14 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" s="23">
         <v>51</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I10" s="23">
         <v>127.5</v>
@@ -21896,7 +21901,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B11" s="23">
         <v>24.28443</v>
@@ -21906,14 +21911,14 @@
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F11" s="23">
         <v>57</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" s="23">
         <v>139.5</v>
@@ -21925,7 +21930,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" s="23">
         <v>28.68627</v>
@@ -21935,14 +21940,14 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" s="23">
         <v>63</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I12" s="23">
         <v>151.5</v>
@@ -21954,7 +21959,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" s="23">
         <v>33.105179999999997</v>
@@ -21964,14 +21969,14 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="23">
         <v>69</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I13" s="23">
         <v>163.5</v>
@@ -21983,7 +21988,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B14" s="23">
         <v>37.531280000000002</v>
@@ -21993,14 +21998,14 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F14" s="23">
         <v>72</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I14" s="24">
         <v>175.5</v>
@@ -22012,7 +22017,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B15" s="23">
         <v>41.959910000000001</v>
@@ -22022,7 +22027,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" s="23">
         <v>75</v>
@@ -22037,7 +22042,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B16" s="23">
         <v>46.387929999999997</v>
@@ -22047,7 +22052,7 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F16" s="23">
         <v>78</v>
@@ -22062,7 +22067,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B17" s="23">
         <v>50.815600000000003</v>
@@ -22072,7 +22077,7 @@
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F17" s="23">
         <v>81</v>
@@ -22087,7 +22092,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="23">
         <v>55.248600000000003</v>
@@ -22097,7 +22102,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F18" s="23">
         <v>84</v>
@@ -22112,7 +22117,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" s="23">
         <v>59.692230000000002</v>
@@ -22122,7 +22127,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F19" s="23">
         <v>87</v>
@@ -22137,7 +22142,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B20" s="23">
         <v>64.136849999999995</v>
@@ -22147,7 +22152,7 @@
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F20" s="23">
         <v>90</v>
@@ -22162,7 +22167,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" s="23">
         <v>68.578999999999994</v>
@@ -22172,7 +22177,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F21" s="23">
         <v>93</v>
@@ -22187,7 +22192,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B22" s="23">
         <v>73.024010000000004</v>
@@ -22197,7 +22202,7 @@
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F22" s="23">
         <v>96</v>
@@ -22212,7 +22217,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23" s="23">
         <v>77.473569999999995</v>
@@ -22222,7 +22227,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="23">
         <v>99</v>
@@ -22237,7 +22242,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="23">
         <v>81.931139999999999</v>
@@ -22247,7 +22252,7 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F24" s="23">
         <v>102</v>
@@ -22262,7 +22267,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="23">
         <v>86.385890000000003</v>
@@ -22272,7 +22277,7 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F25" s="23">
         <v>105</v>
@@ -22287,7 +22292,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" s="23">
         <v>90.8108</v>
@@ -22297,7 +22302,7 @@
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F26" s="23">
         <v>108</v>
@@ -22312,7 +22317,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B27" s="23">
         <v>100</v>
@@ -22322,7 +22327,7 @@
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F27" s="23">
         <v>111</v>
@@ -22337,7 +22342,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B28" s="23">
         <v>0</v>
@@ -22347,7 +22352,7 @@
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F28" s="23">
         <v>114</v>
@@ -22362,7 +22367,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B29" s="23">
         <v>0.43123</v>
@@ -22372,7 +22377,7 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F29" s="23">
         <v>117</v>
@@ -22387,7 +22392,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B30" s="23">
         <v>1.4714700000000001</v>
@@ -22397,7 +22402,7 @@
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F30" s="23">
         <v>120</v>
@@ -22412,7 +22417,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B31" s="23">
         <v>3.9247899999999998</v>
@@ -22422,7 +22427,7 @@
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F31" s="23">
         <v>123</v>
@@ -22437,7 +22442,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B32" s="23">
         <v>7.7950600000000003</v>
@@ -22447,7 +22452,7 @@
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F32" s="23">
         <v>126</v>
@@ -22462,7 +22467,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B33" s="23">
         <v>12.0143</v>
@@ -22472,7 +22477,7 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F33" s="23">
         <v>129</v>
@@ -22487,7 +22492,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="23">
         <v>16.322759999999999</v>
@@ -22497,7 +22502,7 @@
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F34" s="23">
         <v>132</v>
@@ -22512,7 +22517,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B35" s="23">
         <v>20.67013</v>
@@ -22522,7 +22527,7 @@
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F35" s="23">
         <v>135</v>
@@ -22537,7 +22542,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B36" s="23">
         <v>25.03792</v>
@@ -22547,7 +22552,7 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F36" s="23">
         <v>138</v>
@@ -22562,7 +22567,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="23">
         <v>29.41554</v>
@@ -22572,7 +22577,7 @@
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F37" s="23">
         <v>141</v>
@@ -22587,7 +22592,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B38" s="23">
         <v>33.797719999999998</v>
@@ -22597,7 +22602,7 @@
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F38" s="23">
         <v>144</v>
@@ -22612,7 +22617,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B39" s="23">
         <v>38.186750000000004</v>
@@ -22622,7 +22627,7 @@
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F39" s="23">
         <v>147</v>
@@ -22637,7 +22642,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B40" s="23">
         <v>42.575270000000003</v>
@@ -22647,7 +22652,7 @@
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F40" s="23">
         <v>150</v>
@@ -22662,7 +22667,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41" s="23">
         <v>46.962780000000002</v>
@@ -22672,7 +22677,7 @@
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F41" s="23">
         <v>156</v>
@@ -22687,7 +22692,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B42" s="23">
         <v>51.350619999999999</v>
@@ -22697,7 +22702,7 @@
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F42" s="23">
         <v>162</v>
@@ -22712,7 +22717,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" s="23">
         <v>55.736620000000002</v>
@@ -22722,7 +22727,7 @@
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F43" s="23">
         <v>168</v>
@@ -22737,7 +22742,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="23">
         <v>60.120750000000001</v>
@@ -22747,7 +22752,7 @@
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F44" s="23">
         <v>174</v>
@@ -22762,7 +22767,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="23">
         <v>64.505020000000002</v>
@@ -22772,7 +22777,7 @@
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F45" s="23">
         <v>180</v>
@@ -22787,7 +22792,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" s="23">
         <v>68.890100000000004</v>
@@ -22797,7 +22802,7 @@
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F46" s="23">
         <v>186</v>
@@ -22812,7 +22817,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" s="23">
         <v>73.280109999999993</v>
@@ -22822,7 +22827,7 @@
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F47" s="23">
         <v>195</v>
@@ -22837,7 +22842,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" s="23">
         <v>77.67783</v>
@@ -22847,7 +22852,7 @@
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48" s="23">
         <v>207</v>
@@ -22862,7 +22867,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" s="23">
         <v>82.079650000000001</v>
@@ -22872,7 +22877,7 @@
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F49" s="24">
         <v>219</v>
@@ -22887,7 +22892,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B50" s="23">
         <v>86.479780000000005</v>
@@ -22908,7 +22913,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" s="24">
         <v>100</v>
@@ -22928,16 +22933,6 @@
       <c r="M51" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22946,7 +22941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EE75DB-757A-4417-AE0F-F636147AFC0B}">
   <dimension ref="C3:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C2" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -22968,17 +22963,17 @@
   <sheetData>
     <row r="3" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
@@ -23071,14 +23066,14 @@
     </row>
     <row r="9" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="9" t="s">
@@ -23434,15 +23429,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54A4BF6-CEB2-4B1F-A421-B312EC643838}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b96f4e40-2dac-413b-a5c5-f58ff597f96f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="a464381e-418e-400e-8084-198d52c5aba9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b96f4e40-2dac-413b-a5c5-f58ff597f96f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
